--- a/即時匯率.xlsx
+++ b/即時匯率.xlsx
@@ -545,12 +545,12 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00080866</t>
+          <t>0.00079803</t>
         </is>
       </c>
       <c r="G3">
@@ -560,12 +560,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.00080820</t>
+          <t>0.00079900</t>
         </is>
       </c>
       <c r="K3">
@@ -595,12 +595,12 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.01193837</t>
+          <t>2.95286133</t>
         </is>
       </c>
       <c r="G4">
@@ -610,12 +610,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.01025970</t>
+          <t>2.95286133</t>
         </is>
       </c>
       <c r="K4">
@@ -645,12 +645,12 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>30.72900000</t>
+          <t>30.32500000</t>
         </is>
       </c>
       <c r="G5">
@@ -660,12 +660,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>30.71187360</t>
+          <t>30.32300000</t>
         </is>
       </c>
       <c r="K5">
@@ -675,12 +675,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>30.85800000</t>
+          <t>30.36244800</t>
         </is>
       </c>
       <c r="O5">
@@ -706,12 +706,12 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>32.94452796</t>
+          <t>33.14215935</t>
         </is>
       </c>
       <c r="G6">
@@ -721,12 +721,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>32.81020053</t>
+          <t>32.97832449</t>
         </is>
       </c>
       <c r="K6">
@@ -736,12 +736,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>32.94452796</t>
+          <t>33.17988470</t>
         </is>
       </c>
       <c r="O6">
@@ -767,12 +767,12 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.23500282</t>
+          <t>0.23500441</t>
         </is>
       </c>
       <c r="G7">
@@ -782,12 +782,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.23059333</t>
+          <t>0.23257027</t>
         </is>
       </c>
       <c r="K7">
@@ -797,12 +797,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.23500282</t>
+          <t>0.23526980</t>
         </is>
       </c>
       <c r="O7">
@@ -828,12 +828,12 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.43700465</t>
+          <t>4.47581277</t>
         </is>
       </c>
       <c r="G8">
@@ -843,12 +843,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4.43700465</t>
+          <t>4.47581277</t>
         </is>
       </c>
       <c r="K8">
@@ -858,12 +858,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4.45596880</t>
+          <t>4.49323655</t>
         </is>
       </c>
       <c r="O8">
@@ -889,12 +889,12 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.94421303</t>
+          <t>3.87678271</t>
         </is>
       </c>
       <c r="G9">
@@ -904,12 +904,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3.94162260</t>
+          <t>3.87678271</t>
         </is>
       </c>
       <c r="K9">
@@ -919,12 +919,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3.97030799</t>
+          <t>3.88009630</t>
         </is>
       </c>
       <c r="O9">
@@ -950,12 +950,12 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>22.98352227</t>
+          <t>23.06256725</t>
         </is>
       </c>
       <c r="G10">
@@ -965,12 +965,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>22.91465705</t>
+          <t>23.04470017</t>
         </is>
       </c>
       <c r="K10">
@@ -980,12 +980,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>22.98352227</t>
+          <t>23.08957740</t>
         </is>
       </c>
       <c r="O10">
@@ -1011,12 +1011,12 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>37.24351076</t>
+          <t>37.76065225</t>
         </is>
       </c>
       <c r="G11">
@@ -1026,12 +1026,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>37.12748162</t>
+          <t>37.54172371</t>
         </is>
       </c>
       <c r="K11">
@@ -1041,12 +1041,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>37.24351076</t>
+          <t>37.80237030</t>
         </is>
       </c>
       <c r="O11">
@@ -1072,12 +1072,12 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>20.96944864</t>
+          <t>21.35484365</t>
         </is>
       </c>
       <c r="G12">
@@ -1087,12 +1087,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20.83862341</t>
+          <t>21.32750012</t>
         </is>
       </c>
       <c r="K12">
@@ -1102,12 +1102,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>20.96944864</t>
+          <t>21.37770000</t>
         </is>
       </c>
       <c r="O12">
@@ -1133,12 +1133,12 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>22.74198437</t>
+          <t>22.73406528</t>
         </is>
       </c>
       <c r="G13">
@@ -1148,12 +1148,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>22.71890636</t>
+          <t>22.70756420</t>
         </is>
       </c>
       <c r="K13">
@@ -1163,12 +1163,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>22.74198437</t>
+          <t>22.76043870</t>
         </is>
       </c>
       <c r="O13">
@@ -1194,12 +1194,12 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>19.58971793</t>
+          <t>19.71729529</t>
         </is>
       </c>
       <c r="G14">
@@ -1209,12 +1209,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>19.52506007</t>
+          <t>19.70788804</t>
         </is>
       </c>
       <c r="K14">
@@ -1224,12 +1224,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>19.58971793</t>
+          <t>19.73912650</t>
         </is>
       </c>
       <c r="O14">
@@ -1255,12 +1255,12 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.83001036</t>
+          <t>3.76526589</t>
         </is>
       </c>
       <c r="G15">
@@ -1270,12 +1270,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>3.82652280</t>
+          <t>3.76029266</t>
         </is>
       </c>
       <c r="K15">
@@ -1285,12 +1285,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3.84379671</t>
+          <t>3.76526589</t>
         </is>
       </c>
       <c r="O15">
@@ -1316,12 +1316,12 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.89146995</t>
+          <t>0.92779470</t>
         </is>
       </c>
       <c r="G16">
@@ -1331,12 +1331,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.89090940</t>
+          <t>0.92779470</t>
         </is>
       </c>
       <c r="K16">
@@ -1346,12 +1346,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.89259371</t>
+          <t>0.93239670</t>
         </is>
       </c>
       <c r="O16">
@@ -1377,12 +1377,12 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.02454432</t>
+          <t>0.02475955</t>
         </is>
       </c>
       <c r="G17">
@@ -1392,12 +1392,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.02434593</t>
+          <t>0.02475955</t>
         </is>
       </c>
       <c r="K17">
@@ -1407,12 +1407,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.02454432</t>
+          <t>0.02478260</t>
         </is>
       </c>
       <c r="O17">
@@ -1438,12 +1438,12 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.55217337</t>
+          <t>0.55560645</t>
         </is>
       </c>
       <c r="G18">
@@ -1453,12 +1453,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.55095937</t>
+          <t>0.55560645</t>
         </is>
       </c>
       <c r="K18">
@@ -1468,12 +1468,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.55293980</t>
+          <t>0.55922160</t>
         </is>
       </c>
       <c r="O18">
@@ -1499,12 +1499,12 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.00197132</t>
+          <t>0.00200761</t>
         </is>
       </c>
       <c r="G19">
@@ -1514,12 +1514,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.00197139</t>
+          <t>0.00201460</t>
         </is>
       </c>
       <c r="K19">
@@ -1529,12 +1529,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0.00197610</t>
+          <t>0.00201820</t>
         </is>
       </c>
       <c r="O19">
@@ -1560,12 +1560,12 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.00774670</t>
+          <t>7.08527329</t>
         </is>
       </c>
       <c r="G20">
@@ -1575,12 +1575,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6.98144796</t>
+          <t>7.07985057</t>
         </is>
       </c>
       <c r="K20">
@@ -1590,12 +1590,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>7.00774670</t>
+          <t>7.09349130</t>
         </is>
       </c>
       <c r="O20">
@@ -1621,12 +1621,12 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>22.98352227</t>
+          <t>23.06256725</t>
         </is>
       </c>
       <c r="G21">
@@ -1636,12 +1636,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>22.87472202</t>
+          <t>23.00508307</t>
         </is>
       </c>
       <c r="K21">
@@ -1651,12 +1651,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>22.98352227</t>
+          <t>23.08957740</t>
         </is>
       </c>
       <c r="O21">
@@ -1682,12 +1682,12 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.37161651</t>
+          <t>0.37496099</t>
         </is>
       </c>
       <c r="G22">
@@ -1697,12 +1697,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.37161651</t>
+          <t>0.37213897</t>
         </is>
       </c>
       <c r="K22">
@@ -1712,12 +1712,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.37296944</t>
+          <t>0.37496099</t>
         </is>
       </c>
       <c r="O22">
@@ -1743,12 +1743,12 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>33.40831623</t>
+          <t>33.11309202</t>
         </is>
       </c>
       <c r="G23">
@@ -1758,12 +1758,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>33.28730772</t>
+          <t>32.92864357</t>
         </is>
       </c>
       <c r="K23">
@@ -1773,12 +1773,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>33.40831623</t>
+          <t>33.15010680</t>
         </is>
       </c>
       <c r="O23">
@@ -1804,12 +1804,12 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.96354222</t>
+          <t>2.97187080</t>
         </is>
       </c>
       <c r="G24">
@@ -1819,12 +1819,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2.95527185</t>
+          <t>2.96819471</t>
         </is>
       </c>
       <c r="K24">
@@ -1834,12 +1834,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2.96354222</t>
+          <t>2.97502100</t>
         </is>
       </c>
       <c r="O24">
@@ -1865,12 +1865,12 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.16259725</t>
+          <t>3.10153719</t>
         </is>
       </c>
       <c r="G25">
@@ -1880,12 +1880,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3.12450955</t>
+          <t>3.09063701</t>
         </is>
       </c>
       <c r="K25">
@@ -1895,12 +1895,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3.16259725</t>
+          <t>3.10494230</t>
         </is>
       </c>
       <c r="O25">
@@ -1926,12 +1926,12 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.42997568</t>
+          <t>4.45431399</t>
         </is>
       </c>
       <c r="G26">
@@ -1941,12 +1941,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>4.41990570</t>
+          <t>4.45284867</t>
         </is>
       </c>
       <c r="K26">
@@ -1956,12 +1956,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>4.43188487</t>
+          <t>4.45939260</t>
         </is>
       </c>
       <c r="O26">
@@ -1987,12 +1987,12 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.42338093</t>
+          <t>0.44687662</t>
         </is>
       </c>
       <c r="G27">
@@ -2002,12 +2002,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.42338093</t>
+          <t>0.43398859</t>
         </is>
       </c>
       <c r="K27">
@@ -2017,12 +2017,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.43007666</t>
+          <t>0.44687662</t>
         </is>
       </c>
       <c r="O27">
@@ -2048,12 +2048,12 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.82017778</t>
+          <t>1.77806917</t>
         </is>
       </c>
       <c r="G28">
@@ -2063,12 +2063,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.80181127</t>
+          <t>1.76612772</t>
         </is>
       </c>
       <c r="K28">
@@ -2078,12 +2078,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1.82017778</t>
+          <t>1.78004140</t>
         </is>
       </c>
       <c r="O28">
@@ -2109,12 +2109,12 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8.36845568</t>
+          <t>8.25775935</t>
         </is>
       </c>
       <c r="G29">
@@ -2124,12 +2124,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>8.36402780</t>
+          <t>8.25632369</t>
         </is>
       </c>
       <c r="K29">
@@ -2139,12 +2139,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>8.40290826</t>
+          <t>8.26773990</t>
         </is>
       </c>
       <c r="O29">
@@ -2170,12 +2170,12 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.34484345</t>
+          <t>0.34076863</t>
         </is>
       </c>
       <c r="G30">
@@ -2185,12 +2185,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.34484345</t>
+          <t>0.34074615</t>
         </is>
       </c>
       <c r="K30">
@@ -2200,12 +2200,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0.34714816</t>
+          <t>0.34163360</t>
         </is>
       </c>
       <c r="O30">
@@ -2231,12 +2231,12 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.28853521</t>
+          <t>0.28460817</t>
         </is>
       </c>
       <c r="G31">
@@ -2246,12 +2246,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.28698870</t>
+          <t>0.28412110</t>
         </is>
       </c>
       <c r="K31">
@@ -2261,12 +2261,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0.29111321</t>
+          <t>0.28566180</t>
         </is>
       </c>
       <c r="O31">
@@ -2292,12 +2292,12 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.07827649</t>
+          <t>0.07750204</t>
         </is>
       </c>
       <c r="G32">
@@ -2307,12 +2307,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.07827649</t>
+          <t>0.07749693</t>
         </is>
       </c>
       <c r="K32">
@@ -2322,12 +2322,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0.07866521</t>
+          <t>0.07765330</t>
         </is>
       </c>
       <c r="O32">
@@ -2353,12 +2353,12 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>17.16703911</t>
+          <t>16.94134078</t>
         </is>
       </c>
       <c r="G33">
@@ -2368,12 +2368,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>17.15747130</t>
+          <t>16.94134078</t>
         </is>
       </c>
       <c r="K33">
@@ -2383,12 +2383,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>17.29223872</t>
+          <t>16.99243486</t>
         </is>
       </c>
       <c r="O33">
@@ -2414,12 +2414,12 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.06100764</t>
+          <t>0.06026757</t>
         </is>
       </c>
       <c r="G34">
@@ -2429,12 +2429,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.06025160</t>
+          <t>0.05965040</t>
         </is>
       </c>
       <c r="K34">
@@ -2444,12 +2444,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0.06134791</t>
+          <t>0.06026757</t>
         </is>
       </c>
       <c r="O34">
@@ -2475,12 +2475,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.09915203</t>
+          <t>0.09125598</t>
         </is>
       </c>
       <c r="G35">
@@ -2490,12 +2490,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.09915203</t>
+          <t>0.16447711</t>
         </is>
       </c>
       <c r="K35">
@@ -2505,12 +2505,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0.17495181</t>
+          <t>0.09125598</t>
         </is>
       </c>
       <c r="O35">
@@ -2536,12 +2536,12 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>17.16703911</t>
+          <t>16.94134078</t>
         </is>
       </c>
       <c r="G36">
@@ -2551,12 +2551,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>17.15747130</t>
+          <t>16.94134078</t>
         </is>
       </c>
       <c r="K36">
@@ -2566,12 +2566,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>17.33595506</t>
+          <t>17.03539326</t>
         </is>
       </c>
       <c r="O36">
@@ -2597,12 +2597,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>18.12920354</t>
+          <t>17.89085546</t>
         </is>
       </c>
       <c r="G37">
@@ -2612,12 +2612,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>18.06580800</t>
+          <t>17.86026350</t>
         </is>
       </c>
       <c r="K37">
@@ -2627,12 +2627,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>18.20530973</t>
+          <t>17.89085546</t>
         </is>
       </c>
       <c r="O37">
@@ -2658,12 +2658,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>16.84426967</t>
+          <t>16.94531701</t>
         </is>
       </c>
       <c r="G38">
@@ -2673,12 +2673,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>16.72183480</t>
+          <t>16.80636600</t>
         </is>
       </c>
       <c r="K38">
@@ -2688,12 +2688,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>16.84426967</t>
+          <t>16.94531701</t>
         </is>
       </c>
       <c r="O38">
@@ -2719,12 +2719,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>15.44172406</t>
+          <t>15.23870878</t>
         </is>
       </c>
       <c r="G39">
@@ -2734,12 +2734,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>15.43310230</t>
+          <t>15.17591712</t>
         </is>
       </c>
       <c r="K39">
@@ -2749,12 +2749,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>15.44367149</t>
+          <t>15.25751160</t>
         </is>
       </c>
       <c r="O39">
@@ -2780,12 +2780,12 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.29979512</t>
+          <t>0.28744076</t>
         </is>
       </c>
       <c r="G40">
@@ -2795,12 +2795,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.29277040</t>
+          <t>0.28670450</t>
         </is>
       </c>
       <c r="K40">
@@ -2810,12 +2810,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0.29979512</t>
+          <t>0.28744076</t>
         </is>
       </c>
       <c r="O40">
@@ -2841,12 +2841,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>16.84426967</t>
+          <t>16.94531701</t>
         </is>
       </c>
       <c r="G41">
@@ -2856,12 +2856,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>16.75153358</t>
+          <t>16.85922384</t>
         </is>
       </c>
       <c r="K41">
@@ -2871,12 +2871,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>16.84426967</t>
+          <t>16.94531701</t>
         </is>
       </c>
       <c r="O41">
@@ -2902,12 +2902,12 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>81.50928382</t>
+          <t>80.63422507</t>
         </is>
       </c>
       <c r="G42">
@@ -2917,12 +2917,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>81.50928382</t>
+          <t>80.43236074</t>
         </is>
       </c>
       <c r="K42">
@@ -2932,12 +2932,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>81.85145889</t>
+          <t>80.73401400</t>
         </is>
       </c>
       <c r="O42">
@@ -2963,12 +2963,12 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.01502420</t>
+          <t>0.01480388</t>
         </is>
       </c>
       <c r="G43">
@@ -2978,12 +2978,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.01483700</t>
+          <t>0.01466290</t>
         </is>
       </c>
       <c r="K43">
@@ -2993,12 +2993,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0.01508727</t>
+          <t>0.01480388</t>
         </is>
       </c>
       <c r="O43">
@@ -3024,12 +3024,12 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>30.72900000</t>
+          <t>30.32500000</t>
         </is>
       </c>
       <c r="G44">
@@ -3039,12 +3039,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>30.71187360</t>
+          <t>30.32300000</t>
         </is>
       </c>
       <c r="K44">
@@ -3054,12 +3054,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>30.85800000</t>
+          <t>30.36244800</t>
         </is>
       </c>
       <c r="O44">
@@ -3085,12 +3085,12 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.47944606</t>
+          <t>4.42055394</t>
         </is>
       </c>
       <c r="G45">
@@ -3100,12 +3100,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>4.47694950</t>
+          <t>4.42026239</t>
         </is>
       </c>
       <c r="K45">
@@ -3115,12 +3115,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>4.50481752</t>
+          <t>4.42601280</t>
         </is>
       </c>
       <c r="O45">
@@ -3146,12 +3146,12 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5.81646557</t>
+          <t>5.87351727</t>
         </is>
       </c>
       <c r="G46">
@@ -3161,12 +3161,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>5.81646557</t>
+          <t>5.82283586</t>
         </is>
       </c>
       <c r="K46">
@@ -3176,12 +3176,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>5.85807578</t>
+          <t>5.87993580</t>
         </is>
       </c>
       <c r="O46">
@@ -3207,12 +3207,12 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>30.72900000</t>
+          <t>30.32500000</t>
         </is>
       </c>
       <c r="G47">
@@ -3222,12 +3222,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>30.71187360</t>
+          <t>30.32300000</t>
         </is>
       </c>
       <c r="K47">
@@ -3237,12 +3237,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>30.85800000</t>
+          <t>30.36244800</t>
         </is>
       </c>
       <c r="O47">
@@ -3268,12 +3268,12 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.37161651</t>
+          <t>0.37496099</t>
         </is>
       </c>
       <c r="G48">
@@ -3283,12 +3283,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.37144120</t>
+          <t>0.37252300</t>
         </is>
       </c>
       <c r="K48">
@@ -3298,12 +3298,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0.37264066</t>
+          <t>0.37496099</t>
         </is>
       </c>
       <c r="O48">
@@ -3329,12 +3329,12 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.41222650</t>
+          <t>2.38051250</t>
         </is>
       </c>
       <c r="G49">
@@ -3344,12 +3344,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2.41000980</t>
+          <t>2.37435890</t>
         </is>
       </c>
       <c r="K49">
@@ -3359,12 +3359,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2.41319880</t>
+          <t>2.38338780</t>
         </is>
       </c>
       <c r="O49">
@@ -3390,12 +3390,12 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>15.50014174</t>
+          <t>15.29635843</t>
         </is>
       </c>
       <c r="G50">
@@ -3405,12 +3405,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>15.44289861</t>
+          <t>15.17515764</t>
         </is>
       </c>
       <c r="K50">
@@ -3420,12 +3420,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>15.50014174</t>
+          <t>15.31523230</t>
         </is>
       </c>
       <c r="O50">
@@ -3451,12 +3451,12 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.01555363</t>
+          <t>0.01528069</t>
         </is>
       </c>
       <c r="G51">
@@ -3466,12 +3466,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.01496310</t>
+          <t>0.01474480</t>
         </is>
       </c>
       <c r="K51">
@@ -3481,12 +3481,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0.01555363</t>
+          <t>0.01528069</t>
         </is>
       </c>
       <c r="O51">
@@ -3512,12 +3512,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.03616879</t>
+          <t>0.03732308</t>
         </is>
       </c>
       <c r="G52">
@@ -3527,12 +3527,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.03578984</t>
+          <t>0.03729629</t>
         </is>
       </c>
       <c r="K52">
@@ -3542,12 +3542,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0.03616879</t>
+          <t>0.03739770</t>
         </is>
       </c>
       <c r="O52">
@@ -3573,12 +3573,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.00638830</t>
+          <t>0.00654736</t>
         </is>
       </c>
       <c r="G53">
@@ -3588,12 +3588,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.00638470</t>
+          <t>0.00654736</t>
         </is>
       </c>
       <c r="K53">
@@ -3603,12 +3603,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>0.00646949</t>
+          <t>0.00665489</t>
         </is>
       </c>
       <c r="O53">
@@ -3634,12 +3634,12 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.05171752</t>
+          <t>0.05387472</t>
         </is>
       </c>
       <c r="G54">
@@ -3649,12 +3649,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.05171752</t>
+          <t>0.05387403</t>
         </is>
       </c>
       <c r="K54">
@@ -3664,12 +3664,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0.05292967</t>
+          <t>0.05398340</t>
         </is>
       </c>
       <c r="O54">
@@ -3695,12 +3695,12 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.29877593</t>
+          <t>0.30056826</t>
         </is>
       </c>
       <c r="G55">
@@ -3710,12 +3710,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.29664140</t>
+          <t>0.29809480</t>
         </is>
       </c>
       <c r="K55">
@@ -3725,12 +3725,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0.29877593</t>
+          <t>0.30056826</t>
         </is>
       </c>
       <c r="O55">
@@ -3756,12 +3756,12 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.36804244</t>
+          <t>1.38655055</t>
         </is>
       </c>
       <c r="G56">
@@ -3771,12 +3771,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1.35514470</t>
+          <t>1.38233953</t>
         </is>
       </c>
       <c r="K56">
@@ -3786,12 +3786,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1.36804244</t>
+          <t>1.38811740</t>
         </is>
       </c>
       <c r="O56">
@@ -3817,12 +3817,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.17312113</t>
+          <t>0.17084507</t>
         </is>
       </c>
       <c r="G57">
@@ -3832,12 +3832,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.17302460</t>
+          <t>0.17083380</t>
         </is>
       </c>
       <c r="K57">
@@ -3847,12 +3847,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0.17384789</t>
+          <t>0.17124900</t>
         </is>
       </c>
       <c r="O57">
@@ -3878,12 +3878,12 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.54890956</t>
+          <t>0.53725722</t>
         </is>
       </c>
       <c r="G58">
@@ -3893,12 +3893,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.54838630</t>
+          <t>0.53707049</t>
         </is>
       </c>
       <c r="K58">
@@ -3908,12 +3908,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0.55251567</t>
+          <t>0.53773630</t>
         </is>
       </c>
       <c r="O58">
@@ -3939,12 +3939,12 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.22396920</t>
+          <t>0.22362299</t>
         </is>
       </c>
       <c r="G59">
@@ -3954,12 +3954,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.22396920</t>
+          <t>0.22362299</t>
         </is>
       </c>
       <c r="K59">
@@ -3969,12 +3969,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>0.22510975</t>
+          <t>0.22407140</t>
         </is>
       </c>
       <c r="O59">
@@ -4000,12 +4000,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.24399841</t>
+          <t>1.01648499</t>
         </is>
       </c>
       <c r="G60">
@@ -4015,12 +4015,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1.24330510</t>
+          <t>1.01648499</t>
         </is>
       </c>
       <c r="K60">
@@ -4030,12 +4030,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1.24580633</t>
+          <t>1.01977980</t>
         </is>
       </c>
       <c r="O60">
@@ -4061,12 +4061,12 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.57680829</t>
+          <t>0.56752574</t>
         </is>
       </c>
       <c r="G61">
@@ -4076,12 +4076,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.57401730</t>
+          <t>0.56675680</t>
         </is>
       </c>
       <c r="K61">
@@ -4091,12 +4091,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>0.57883097</t>
+          <t>0.56752574</t>
         </is>
       </c>
       <c r="O61">
@@ -4122,12 +4122,12 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>14.04622590</t>
+          <t>14.05260500</t>
         </is>
       </c>
       <c r="G62">
@@ -4137,12 +4137,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>14.04622590</t>
+          <t>14.01832290</t>
         </is>
       </c>
       <c r="K62">
@@ -4152,12 +4152,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>14.17616520</t>
+          <t>14.23695180</t>
         </is>
       </c>
       <c r="O62">
@@ -4183,12 +4183,12 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>37.24351076</t>
+          <t>37.76065225</t>
         </is>
       </c>
       <c r="G63">
@@ -4198,12 +4198,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>37.17154682</t>
+          <t>37.64600451</t>
         </is>
       </c>
       <c r="K63">
@@ -4213,12 +4213,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>37.24351076</t>
+          <t>37.80237030</t>
         </is>
       </c>
       <c r="O63">
@@ -4244,12 +4244,12 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11.53058161</t>
+          <t>11.59655832</t>
         </is>
       </c>
       <c r="G64">
@@ -4259,12 +4259,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>11.51417910</t>
+          <t>11.59579350</t>
         </is>
       </c>
       <c r="K64">
@@ -4274,12 +4274,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>11.53058161</t>
+          <t>11.62021050</t>
         </is>
       </c>
       <c r="O64">
@@ -4305,12 +4305,12 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3.07905812</t>
+          <t>2.52708333</t>
         </is>
       </c>
       <c r="G65">
@@ -4320,12 +4320,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>3.07905812</t>
+          <t>2.45226290</t>
         </is>
       </c>
       <c r="K65">
@@ -4335,12 +4335,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>3.24821053</t>
+          <t>2.52708333</t>
         </is>
       </c>
       <c r="O65">
@@ -4366,12 +4366,12 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>37.24351076</t>
+          <t>37.76065225</t>
         </is>
       </c>
       <c r="G66">
@@ -4381,12 +4381,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>37.17154682</t>
+          <t>37.64600451</t>
         </is>
       </c>
       <c r="K66">
@@ -4396,12 +4396,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>37.24351076</t>
+          <t>37.80237030</t>
         </is>
       </c>
       <c r="O66">
@@ -4427,12 +4427,12 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.50524499</t>
+          <t>0.49518289</t>
         </is>
       </c>
       <c r="G67">
@@ -4442,12 +4442,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.50421569</t>
+          <t>0.49385993</t>
         </is>
       </c>
       <c r="K67">
@@ -4457,12 +4457,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>0.55799190</t>
+          <t>0.55034340</t>
         </is>
       </c>
       <c r="O67">
@@ -4488,12 +4488,12 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.00359277</t>
+          <t>0.00355094</t>
         </is>
       </c>
       <c r="G68">
@@ -4503,12 +4503,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.00359277</t>
+          <t>0.00355070</t>
         </is>
       </c>
       <c r="K68">
@@ -4518,12 +4518,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0.00360617</t>
+          <t>0.00356090</t>
         </is>
       </c>
       <c r="O68">
@@ -4549,12 +4549,12 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3.91951531</t>
+          <t>3.86798469</t>
         </is>
       </c>
       <c r="G69">
@@ -4564,12 +4564,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>3.91833040</t>
+          <t>3.86772959</t>
         </is>
       </c>
       <c r="K69">
@@ -4579,12 +4579,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>3.93596939</t>
+          <t>3.87325530</t>
         </is>
       </c>
       <c r="O69">
@@ -4610,12 +4610,12 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.14679692</t>
+          <t>0.14494312</t>
         </is>
       </c>
       <c r="G70">
@@ -4625,12 +4625,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.14679692</t>
+          <t>0.14439524</t>
         </is>
       </c>
       <c r="K70">
@@ -4640,12 +4640,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>0.14837004</t>
+          <t>0.14537270</t>
         </is>
       </c>
       <c r="O70">
@@ -4671,12 +4671,12 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1.25160376</t>
+          <t>1.23576275</t>
         </is>
       </c>
       <c r="G71">
@@ -4686,12 +4686,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1.24673200</t>
+          <t>1.23272860</t>
         </is>
       </c>
       <c r="K71">
@@ -4701,12 +4701,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1.25685798</t>
+          <t>1.23576275</t>
         </is>
       </c>
       <c r="O71">
@@ -4732,12 +4732,12 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4.37249027</t>
+          <t>4.39872047</t>
         </is>
       </c>
       <c r="G72">
@@ -4747,12 +4747,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>4.34662572</t>
+          <t>4.30816225</t>
         </is>
       </c>
       <c r="K72">
@@ -4762,12 +4762,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>4.37249027</t>
+          <t>4.40372840</t>
         </is>
       </c>
       <c r="O72">
@@ -4793,12 +4793,12 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.20681982</t>
+          <t>0.20305768</t>
         </is>
       </c>
       <c r="G73">
@@ -4808,12 +4808,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0.20670460</t>
+          <t>0.20305768</t>
         </is>
       </c>
       <c r="K73">
@@ -4823,12 +4823,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>0.21429167</t>
+          <t>0.20769178</t>
         </is>
       </c>
       <c r="O73">
@@ -4854,12 +4854,12 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.08270480</t>
+          <t>0.08435553</t>
         </is>
       </c>
       <c r="G74">
@@ -4869,12 +4869,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0.08170625</t>
+          <t>0.08342642</t>
         </is>
       </c>
       <c r="K74">
@@ -4884,12 +4884,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>0.08270480</t>
+          <t>0.08443920</t>
         </is>
       </c>
       <c r="O74">
@@ -4915,12 +4915,12 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>8.79528573</t>
+          <t>9.02206643</t>
         </is>
       </c>
       <c r="G75">
@@ -4930,12 +4930,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>8.72458933</t>
+          <t>9.01370352</t>
         </is>
       </c>
       <c r="K75">
@@ -4945,12 +4945,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>8.79528573</t>
+          <t>9.03095980</t>
         </is>
       </c>
       <c r="O75">
@@ -4976,12 +4976,12 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.02104726</t>
+          <t>0.02077055</t>
         </is>
       </c>
       <c r="G76">
@@ -4991,12 +4991,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.02103550</t>
+          <t>0.02077055</t>
         </is>
       </c>
       <c r="K76">
@@ -5006,12 +5006,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>0.02116461</t>
+          <t>0.02079620</t>
         </is>
       </c>
       <c r="O76">
@@ -5037,12 +5037,12 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.21625673</t>
+          <t>0.21336101</t>
         </is>
       </c>
       <c r="G77">
@@ -5052,12 +5052,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.21619842</t>
+          <t>0.21307709</t>
         </is>
       </c>
       <c r="K77">
@@ -5067,12 +5067,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>0.21625673</t>
+          <t>0.21336101</t>
         </is>
       </c>
       <c r="O77">
@@ -5098,12 +5098,12 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.20309980</t>
+          <t>0.20082781</t>
         </is>
       </c>
       <c r="G78">
@@ -5113,12 +5113,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0.20250250</t>
+          <t>0.19695440</t>
         </is>
       </c>
       <c r="K78">
@@ -5128,12 +5128,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>0.20373696</t>
+          <t>0.20082781</t>
         </is>
       </c>
       <c r="O78">
@@ -5159,12 +5159,12 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>43.40254237</t>
+          <t>42.83192090</t>
         </is>
       </c>
       <c r="G79">
@@ -5174,12 +5174,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>43.29884900</t>
+          <t>42.72650416</t>
         </is>
       </c>
       <c r="K79">
@@ -5189,12 +5189,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>43.55398730</t>
+          <t>42.84159080</t>
         </is>
       </c>
       <c r="O79">
@@ -5220,12 +5220,12 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.24922141</t>
+          <t>0.24445788</t>
         </is>
       </c>
       <c r="G80">
@@ -5235,12 +5235,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.24920460</t>
+          <t>0.24444176</t>
         </is>
       </c>
       <c r="K80">
@@ -5250,12 +5250,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>0.25057247</t>
+          <t>0.24495450</t>
         </is>
       </c>
       <c r="O80">
@@ -5281,12 +5281,12 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.35864846</t>
+          <t>0.35204686</t>
         </is>
       </c>
       <c r="G81">
@@ -5296,12 +5296,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.35844860</t>
+          <t>0.35202365</t>
         </is>
       </c>
       <c r="K81">
@@ -5311,12 +5311,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>0.36015406</t>
+          <t>0.35248160</t>
         </is>
       </c>
       <c r="O81">
@@ -5342,12 +5342,12 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.00746471</t>
+          <t>0.00736893</t>
         </is>
       </c>
       <c r="G82">
@@ -5357,12 +5357,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.00746471</t>
+          <t>0.00736893</t>
         </is>
       </c>
       <c r="K82">
@@ -5372,12 +5372,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>0.00751717</t>
+          <t>0.00739030</t>
         </is>
       </c>
       <c r="O82">
@@ -5403,12 +5403,12 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.06696481</t>
+          <t>0.06736653</t>
         </is>
       </c>
       <c r="G83">
@@ -5418,12 +5418,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.06657605</t>
+          <t>0.06694115</t>
         </is>
       </c>
       <c r="K83">
@@ -5433,12 +5433,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>0.06696481</t>
+          <t>0.06736653</t>
         </is>
       </c>
       <c r="O83">
@@ -5464,12 +5464,12 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>100.44126299</t>
+          <t>99.29275400</t>
         </is>
       </c>
       <c r="G84">
@@ -5479,12 +5479,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>100.44126299</t>
+          <t>99.27645364</t>
         </is>
       </c>
       <c r="K84">
@@ -5494,12 +5494,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>100.74107930</t>
+          <t>99.51964340</t>
         </is>
       </c>
       <c r="O84">
@@ -5525,12 +5525,12 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>36.87480000</t>
+          <t>36.39000000</t>
         </is>
       </c>
       <c r="G85">
@@ -5540,12 +5540,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>36.85426310</t>
+          <t>36.39000000</t>
         </is>
       </c>
       <c r="K85">
@@ -5555,12 +5555,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>37.40363636</t>
+          <t>36.75515152</t>
         </is>
       </c>
       <c r="O85">
@@ -5586,12 +5586,12 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.06643534</t>
+          <t>0.06563853</t>
         </is>
       </c>
       <c r="G86">
@@ -5601,12 +5601,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.06643534</t>
+          <t>0.06563420</t>
         </is>
       </c>
       <c r="K86">
@@ -5616,12 +5616,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>0.06664939</t>
+          <t>0.06579800</t>
         </is>
       </c>
       <c r="O86">
@@ -5647,12 +5647,12 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.00185114</t>
+          <t>0.00187203</t>
         </is>
       </c>
       <c r="G87">
@@ -5662,12 +5662,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.00177800</t>
+          <t>0.00180226</t>
         </is>
       </c>
       <c r="K87">
@@ -5677,12 +5677,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>0.00185114</t>
+          <t>0.00187203</t>
         </is>
       </c>
       <c r="O87">
@@ -5708,12 +5708,12 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.08465289</t>
+          <t>0.08365517</t>
         </is>
       </c>
       <c r="G88">
@@ -5723,12 +5723,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.08368690</t>
+          <t>0.08354700</t>
         </is>
       </c>
       <c r="K88">
@@ -5738,12 +5738,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>0.08500826</t>
+          <t>0.08376519</t>
         </is>
       </c>
       <c r="O88">
@@ -5769,12 +5769,12 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.20018893</t>
+          <t>0.19564516</t>
         </is>
       </c>
       <c r="G89">
@@ -5784,12 +5784,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0.19906100</t>
+          <t>0.19452980</t>
         </is>
       </c>
       <c r="K89">
@@ -5799,12 +5799,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>0.20116037</t>
+          <t>0.19564516</t>
         </is>
       </c>
       <c r="O89">
@@ -5830,12 +5830,12 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1.82017778</t>
+          <t>1.77806917</t>
         </is>
       </c>
       <c r="G90">
@@ -5845,12 +5845,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>1.80368593</t>
+          <t>1.76604543</t>
         </is>
       </c>
       <c r="K90">
@@ -5860,12 +5860,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>1.82017778</t>
+          <t>1.77806917</t>
         </is>
       </c>
       <c r="O90">
@@ -5891,12 +5891,12 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>6.37967903</t>
+          <t>6.38945661</t>
         </is>
       </c>
       <c r="G91">
@@ -5906,12 +5906,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>6.37031600</t>
+          <t>6.38903521</t>
         </is>
       </c>
       <c r="K91">
@@ -5921,12 +5921,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>6.41058667</t>
+          <t>6.39194060</t>
         </is>
       </c>
       <c r="O91">
@@ -5952,12 +5952,12 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2.94711574</t>
+          <t>2.98315022</t>
         </is>
       </c>
       <c r="G92">
@@ -5967,12 +5967,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2.94252490</t>
+          <t>2.97339701</t>
         </is>
       </c>
       <c r="K92">
@@ -5982,12 +5982,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2.94711574</t>
+          <t>2.98384430</t>
         </is>
       </c>
       <c r="O92">
@@ -6013,12 +6013,12 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1.61053459</t>
+          <t>1.61208867</t>
         </is>
       </c>
       <c r="G93">
@@ -6028,12 +6028,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>1.60800270</t>
+          <t>1.61198235</t>
         </is>
       </c>
       <c r="K93">
@@ -6043,12 +6043,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>1.61560209</t>
+          <t>1.61238030</t>
         </is>
       </c>
       <c r="O93">
@@ -6074,12 +6074,12 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.00688994</t>
+          <t>0.00710281</t>
         </is>
       </c>
       <c r="G94">
@@ -6089,12 +6089,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.00688720</t>
+          <t>0.00710281</t>
         </is>
       </c>
       <c r="K94">
@@ -6104,12 +6104,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>0.00692504</t>
+          <t>0.00712600</t>
         </is>
       </c>
       <c r="O94">
@@ -6135,12 +6135,12 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.53299453</t>
+          <t>0.53434334</t>
         </is>
       </c>
       <c r="G95">
@@ -6150,12 +6150,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.53269750</t>
+          <t>0.53434334</t>
         </is>
       </c>
       <c r="K95">
@@ -6165,12 +6165,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>0.53443020</t>
+          <t>0.53517473</t>
         </is>
       </c>
       <c r="O95">
@@ -6196,12 +6196,12 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.01463286</t>
+          <t>0.01444048</t>
         </is>
       </c>
       <c r="G96">
@@ -6211,12 +6211,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.01462470</t>
+          <t>0.01444048</t>
         </is>
       </c>
       <c r="K96">
@@ -6226,12 +6226,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>0.01473850</t>
+          <t>0.01448297</t>
         </is>
       </c>
       <c r="O96">
@@ -6257,12 +6257,12 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.00897197</t>
+          <t>0.00879495</t>
         </is>
       </c>
       <c r="G97">
@@ -6272,12 +6272,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.00893180</t>
+          <t>0.00878673</t>
         </is>
       </c>
       <c r="K97">
@@ -6287,12 +6287,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>0.00904131</t>
+          <t>0.00879495</t>
         </is>
       </c>
       <c r="O97">
@@ -6318,12 +6318,12 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.70441229</t>
+          <t>0.68754039</t>
         </is>
       </c>
       <c r="G98">
@@ -6333,12 +6333,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.69916030</t>
+          <t>0.68298980</t>
         </is>
       </c>
       <c r="K98">
@@ -6348,12 +6348,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>0.70937931</t>
+          <t>0.68754039</t>
         </is>
       </c>
       <c r="O98">
@@ -6379,12 +6379,12 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1.99280156</t>
+          <t>1.96660182</t>
         </is>
       </c>
       <c r="G99">
@@ -6394,12 +6394,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>1.98912360</t>
+          <t>1.96647211</t>
         </is>
       </c>
       <c r="K99">
@@ -6409,12 +6409,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2.00116732</t>
+          <t>1.96708320</t>
         </is>
       </c>
       <c r="O99">
@@ -6440,12 +6440,12 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.03022660</t>
+          <t>0.02982921</t>
         </is>
       </c>
       <c r="G100">
@@ -6455,12 +6455,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.03005480</t>
+          <t>0.02982921</t>
         </is>
       </c>
       <c r="K100">
@@ -6470,12 +6470,12 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>0.03061310</t>
+          <t>0.03001534</t>
         </is>
       </c>
       <c r="O100">
@@ -6501,12 +6501,12 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1.58396749</t>
+          <t>1.61457617</t>
         </is>
       </c>
       <c r="G101">
@@ -6516,12 +6516,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>1.58396749</t>
+          <t>1.61457617</t>
         </is>
       </c>
       <c r="K101">
@@ -6531,12 +6531,12 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>1.59520815</t>
+          <t>1.61899003</t>
         </is>
       </c>
       <c r="O101">
@@ -6562,12 +6562,12 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.48591082</t>
+          <t>0.47952245</t>
         </is>
       </c>
       <c r="G102">
@@ -6577,12 +6577,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0.47964650</t>
+          <t>0.47422080</t>
         </is>
       </c>
       <c r="K102">
@@ -6592,12 +6592,12 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>0.48795066</t>
+          <t>0.47952245</t>
         </is>
       </c>
       <c r="O102">
@@ -6623,12 +6623,12 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1.82017778</t>
+          <t>1.77806917</t>
         </is>
       </c>
       <c r="G103">
@@ -6638,12 +6638,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>1.80297984</t>
+          <t>1.76657015</t>
         </is>
       </c>
       <c r="K103">
@@ -6653,12 +6653,12 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>1.82017778</t>
+          <t>1.78004140</t>
         </is>
       </c>
       <c r="O103">
@@ -6684,12 +6684,12 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.06664281</t>
+          <t>0.06573956</t>
         </is>
       </c>
       <c r="G104">
@@ -6699,12 +6699,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.06660570</t>
+          <t>0.06573956</t>
         </is>
       </c>
       <c r="K104">
@@ -6714,12 +6714,12 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>0.06916663</t>
+          <t>0.06670847</t>
         </is>
       </c>
       <c r="O104">
@@ -6745,12 +6745,12 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0.84817855</t>
+          <t>0.83593832</t>
         </is>
       </c>
       <c r="G105">
@@ -6760,12 +6760,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0.84817855</t>
+          <t>0.83593832</t>
         </is>
       </c>
       <c r="K105">
@@ -6775,12 +6775,12 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>0.85669073</t>
+          <t>0.84262670</t>
         </is>
       </c>
       <c r="O105">
@@ -6806,12 +6806,12 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0.23226032</t>
+          <t>0.23435062</t>
         </is>
       </c>
       <c r="G106">
@@ -6821,12 +6821,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0.23226032</t>
+          <t>0.23285978</t>
         </is>
       </c>
       <c r="K106">
@@ -6836,12 +6836,12 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>0.23276759</t>
+          <t>0.23435062</t>
         </is>
       </c>
       <c r="O106">
@@ -6867,12 +6867,12 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>79.83424697</t>
+          <t>78.77851094</t>
         </is>
       </c>
       <c r="G107">
@@ -6882,12 +6882,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>79.83330800</t>
+          <t>78.76103896</t>
         </is>
       </c>
       <c r="K107">
@@ -6897,12 +6897,12 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>80.15064935</t>
+          <t>78.92294980</t>
         </is>
       </c>
       <c r="O107">
@@ -6928,12 +6928,12 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>30.72900000</t>
+          <t>30.32500000</t>
         </is>
       </c>
       <c r="G108">
@@ -6943,12 +6943,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>30.71187360</t>
+          <t>30.32300000</t>
         </is>
       </c>
       <c r="K108">
@@ -6958,12 +6958,12 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>30.85800000</t>
+          <t>30.36244800</t>
         </is>
       </c>
       <c r="O108">
@@ -6989,12 +6989,12 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>8.08147486</t>
+          <t>7.84686643</t>
         </is>
       </c>
       <c r="G109">
@@ -7004,12 +7004,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>8.08147486</t>
+          <t>7.84686643</t>
         </is>
       </c>
       <c r="K109">
@@ -7019,12 +7019,12 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>8.13079680</t>
+          <t>7.90015180</t>
         </is>
       </c>
       <c r="O109">
@@ -7050,12 +7050,12 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>8.72703600</t>
+          <t>8.61230000</t>
         </is>
       </c>
       <c r="G110">
@@ -7065,12 +7065,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>8.72217200</t>
+          <t>8.61230000</t>
         </is>
       </c>
       <c r="K110">
@@ -7080,12 +7080,12 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>8.99510700</t>
+          <t>8.86947750</t>
         </is>
       </c>
       <c r="O110">
@@ -7111,12 +7111,12 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0.13580978</t>
+          <t>0.13183178</t>
         </is>
       </c>
       <c r="G111">
@@ -7126,12 +7126,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>0.13570430</t>
+          <t>0.13141062</t>
         </is>
       </c>
       <c r="K111">
@@ -7141,12 +7141,12 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>0.13623841</t>
+          <t>0.13183178</t>
         </is>
       </c>
       <c r="O111">
@@ -7172,12 +7172,12 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>7.04695897</t>
+          <t>7.03383427</t>
         </is>
       </c>
       <c r="G112">
@@ -7187,12 +7187,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>6.99759626</t>
+          <t>7.00381106</t>
         </is>
       </c>
       <c r="K112">
@@ -7202,12 +7202,12 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>7.04695897</t>
+          <t>7.03983470</t>
         </is>
       </c>
       <c r="O112">
@@ -7233,12 +7233,12 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0.00419629</t>
+          <t>0.00410875</t>
         </is>
       </c>
       <c r="G113">
@@ -7248,12 +7248,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0.00419421</t>
+          <t>0.00410848</t>
         </is>
       </c>
       <c r="K113">
@@ -7263,12 +7263,12 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>0.00419629</t>
+          <t>0.00411550</t>
         </is>
       </c>
       <c r="O113">
@@ -7294,12 +7294,12 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>8.44203297</t>
+          <t>8.33104396</t>
         </is>
       </c>
       <c r="G114">
@@ -7309,12 +7309,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>8.43732790</t>
+          <t>8.33049451</t>
         </is>
       </c>
       <c r="K114">
@@ -7324,12 +7324,12 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>8.47747253</t>
+          <t>8.34133190</t>
         </is>
       </c>
       <c r="O114">
@@ -7355,12 +7355,12 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>6.67745263</t>
+          <t>6.73828319</t>
         </is>
       </c>
       <c r="G115">
@@ -7370,12 +7370,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>6.64470284</t>
+          <t>6.71040984</t>
         </is>
       </c>
       <c r="K115">
@@ -7385,12 +7385,12 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>6.67745263</t>
+          <t>6.74762300</t>
         </is>
       </c>
       <c r="O115">
@@ -7416,12 +7416,12 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0.28014404</t>
+          <t>0.28109937</t>
         </is>
       </c>
       <c r="G116">
@@ -7431,12 +7431,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>0.27989116</t>
+          <t>0.28109937</t>
         </is>
       </c>
       <c r="K116">
@@ -7446,12 +7446,12 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>0.28033690</t>
+          <t>0.28139110</t>
         </is>
       </c>
       <c r="O116">
@@ -7477,12 +7477,12 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0.02898661</t>
+          <t>0.02836657</t>
         </is>
       </c>
       <c r="G117">
@@ -7492,12 +7492,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>0.02878320</t>
+          <t>0.02822270</t>
         </is>
       </c>
       <c r="K117">
@@ -7507,12 +7507,12 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>0.02919395</t>
+          <t>0.02836657</t>
         </is>
       </c>
       <c r="O117">
@@ -7538,12 +7538,12 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>8.18130172</t>
+          <t>8.07632089</t>
         </is>
       </c>
       <c r="G118">
@@ -7553,12 +7553,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>8.17457380</t>
+          <t>8.07632089</t>
         </is>
       </c>
       <c r="K118">
@@ -7568,12 +7568,12 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>8.21128260</t>
+          <t>8.08888750</t>
         </is>
       </c>
       <c r="O118">
@@ -7599,12 +7599,12 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>3.82268760</t>
+          <t>3.78152750</t>
         </is>
       </c>
       <c r="G119">
@@ -7614,12 +7614,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>3.82268760</t>
+          <t>3.76005200</t>
         </is>
       </c>
       <c r="K119">
@@ -7629,12 +7629,12 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>3.86355370</t>
+          <t>3.78152750</t>
         </is>
       </c>
       <c r="O119">
@@ -7660,12 +7660,12 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2.22859629</t>
+          <t>2.21195367</t>
         </is>
       </c>
       <c r="G120">
@@ -7675,12 +7675,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>2.21642360</t>
+          <t>2.20636815</t>
         </is>
       </c>
       <c r="K120">
@@ -7690,12 +7690,12 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2.39856357</t>
+          <t>2.21195367</t>
         </is>
       </c>
       <c r="O120">
@@ -7721,12 +7721,12 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>37.24351076</t>
+          <t>37.76065225</t>
         </is>
       </c>
       <c r="G121">
@@ -7736,12 +7736,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>37.11600242</t>
+          <t>37.48529263</t>
         </is>
       </c>
       <c r="K121">
@@ -7751,12 +7751,12 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>37.24351076</t>
+          <t>37.80237030</t>
         </is>
       </c>
       <c r="O121">
@@ -7782,12 +7782,12 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0.05438761</t>
+          <t>0.05367257</t>
         </is>
       </c>
       <c r="G122">
@@ -7797,12 +7797,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>0.05410920</t>
+          <t>0.05349890</t>
         </is>
       </c>
       <c r="K122">
@@ -7812,12 +7812,12 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>0.05451943</t>
+          <t>0.05367257</t>
         </is>
       </c>
       <c r="O122">
@@ -7843,12 +7843,12 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0.96738549</t>
+          <t>0.95211931</t>
         </is>
       </c>
       <c r="G123">
@@ -7858,12 +7858,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>0.95667180</t>
+          <t>0.95205651</t>
         </is>
       </c>
       <c r="K123">
@@ -7873,12 +7873,12 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>0.97300877</t>
+          <t>0.95257970</t>
         </is>
       </c>
       <c r="O123">
@@ -7904,12 +7904,12 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0.04665543</t>
+          <t>0.04457784</t>
         </is>
       </c>
       <c r="G124">
@@ -7919,12 +7919,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>0.04627330</t>
+          <t>0.04430030</t>
         </is>
       </c>
       <c r="K124">
@@ -7934,12 +7934,12 @@
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>0.04668537</t>
+          <t>0.04457784</t>
         </is>
       </c>
       <c r="O124">
@@ -7965,12 +7965,12 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>3.51188571</t>
+          <t>3.46571429</t>
         </is>
       </c>
       <c r="G125">
@@ -7980,12 +7980,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>3.50992840</t>
+          <t>3.46568375</t>
         </is>
       </c>
       <c r="K125">
@@ -7995,12 +7995,12 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>3.52683010</t>
+          <t>3.46999410</t>
         </is>
       </c>
       <c r="O125">
@@ -8026,12 +8026,12 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1.82017778</t>
+          <t>1.77806917</t>
         </is>
       </c>
       <c r="G126">
@@ -8041,12 +8041,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>1.80369647</t>
+          <t>1.76681719</t>
         </is>
       </c>
       <c r="K126">
@@ -8056,12 +8056,12 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1.82017778</t>
+          <t>1.77806917</t>
         </is>
       </c>
       <c r="O126">
@@ -8087,12 +8087,12 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>8.80234890</t>
+          <t>8.68662274</t>
         </is>
       </c>
       <c r="G127">
@@ -8102,12 +8102,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>8.79881290</t>
+          <t>8.68662274</t>
         </is>
       </c>
       <c r="K127">
@@ -8117,12 +8117,12 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>8.84183381</t>
+          <t>8.69957510</t>
         </is>
       </c>
       <c r="O127">
@@ -8148,12 +8148,12 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>10.01923704</t>
+          <t>10.03474520</t>
         </is>
       </c>
       <c r="G128">
@@ -8163,12 +8163,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>9.89038462</t>
+          <t>9.82057842</t>
         </is>
       </c>
       <c r="K128">
@@ -8178,12 +8178,12 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>10.08732630</t>
+          <t>10.12182820</t>
         </is>
       </c>
       <c r="O128">
@@ -8209,12 +8209,12 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>13.52690580</t>
+          <t>13.46733250</t>
         </is>
       </c>
       <c r="G129">
@@ -8224,12 +8224,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>13.26894000</t>
+          <t>13.03889000</t>
         </is>
       </c>
       <c r="K129">
@@ -8239,12 +8239,12 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>13.52690580</t>
+          <t>13.46733250</t>
         </is>
       </c>
       <c r="O129">
@@ -8270,12 +8270,12 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1.64510784</t>
+          <t>1.61544488</t>
         </is>
       </c>
       <c r="G130">
@@ -8285,12 +8285,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>1.64510784</t>
+          <t>1.61487541</t>
         </is>
       </c>
       <c r="K130">
@@ -8300,12 +8300,12 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>1.65755220</t>
+          <t>1.63060670</t>
         </is>
       </c>
       <c r="O130">
@@ -8331,12 +8331,12 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>4.57576389</t>
+          <t>4.51452986</t>
         </is>
       </c>
       <c r="G131">
@@ -8346,12 +8346,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>4.54163130</t>
+          <t>4.49116519</t>
         </is>
       </c>
       <c r="K131">
@@ -8361,12 +8361,12 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>4.58330239</t>
+          <t>4.51452986</t>
         </is>
       </c>
       <c r="O131">
@@ -8392,12 +8392,12 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0.01337550</t>
+          <t>0.01319792</t>
         </is>
       </c>
       <c r="G132">
@@ -8407,12 +8407,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>0.01317960</t>
+          <t>0.01303094</t>
         </is>
       </c>
       <c r="K132">
@@ -8422,12 +8422,12 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>0.01337550</t>
+          <t>0.01319792</t>
         </is>
       </c>
       <c r="O132">
@@ -8453,12 +8453,12 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0.84031109</t>
+          <t>0.82926336</t>
         </is>
       </c>
       <c r="G133">
@@ -8468,12 +8468,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>0.83626016</t>
+          <t>0.82120515</t>
         </is>
       </c>
       <c r="K133">
@@ -8483,12 +8483,12 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>0.84031109</t>
+          <t>0.83028740</t>
         </is>
       </c>
       <c r="O133">
@@ -8514,12 +8514,12 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0.00827160</t>
+          <t>0.00825619</t>
         </is>
       </c>
       <c r="G134">
@@ -8529,12 +8529,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>0.00826830</t>
+          <t>0.00825619</t>
         </is>
       </c>
       <c r="K134">
@@ -8544,12 +8544,12 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>0.00829516</t>
+          <t>0.00826670</t>
         </is>
       </c>
       <c r="O134">
@@ -8575,12 +8575,12 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0.76686382</t>
+          <t>0.77432781</t>
         </is>
       </c>
       <c r="G135">
@@ -8590,12 +8590,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>0.76686382</t>
+          <t>0.77432781</t>
         </is>
       </c>
       <c r="K135">
@@ -8605,12 +8605,12 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>0.77727960</t>
+          <t>0.77554150</t>
         </is>
       </c>
       <c r="O135">
@@ -8636,12 +8636,12 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0.00273346</t>
+          <t>0.00268713</t>
         </is>
       </c>
       <c r="G136">
@@ -8651,12 +8651,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>0.00273070</t>
+          <t>0.00268695</t>
         </is>
       </c>
       <c r="K136">
@@ -8666,12 +8666,12 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>0.00276011</t>
+          <t>0.00268713</t>
         </is>
       </c>
       <c r="O136">
@@ -8697,12 +8697,12 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0.00130042</t>
+          <t>0.00129180</t>
         </is>
       </c>
       <c r="G137">
@@ -8712,12 +8712,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>0.00130644</t>
+          <t>0.00129364</t>
         </is>
       </c>
       <c r="K137">
@@ -8727,12 +8727,12 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>0.00130042</t>
+          <t>0.00129180</t>
         </is>
       </c>
       <c r="O137">
@@ -8758,12 +8758,12 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0.26621329</t>
+          <t>0.26667546</t>
         </is>
       </c>
       <c r="G138">
@@ -8773,12 +8773,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>0.25614570</t>
+          <t>0.25290242</t>
         </is>
       </c>
       <c r="K138">
@@ -8788,12 +8788,12 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>0.26621329</t>
+          <t>0.26667546</t>
         </is>
       </c>
       <c r="O138">
@@ -8819,12 +8819,12 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>11.71082190</t>
+          <t>11.67815750</t>
         </is>
       </c>
       <c r="G139">
@@ -8834,12 +8834,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>11.62905050</t>
+          <t>11.61515440</t>
         </is>
       </c>
       <c r="K139">
@@ -8849,12 +8849,12 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>11.71082190</t>
+          <t>11.79261470</t>
         </is>
       </c>
       <c r="O139">
@@ -8880,12 +8880,12 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0.05022361</t>
+          <t>0.05052490</t>
         </is>
       </c>
       <c r="G140">
@@ -8895,12 +8895,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>0.04983920</t>
+          <t>0.05026773</t>
         </is>
       </c>
       <c r="K140">
@@ -8910,12 +8910,12 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>0.05022361</t>
+          <t>0.05052490</t>
         </is>
       </c>
       <c r="O140">
@@ -8941,12 +8941,12 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>11.43119669</t>
+          <t>11.28090857</t>
         </is>
       </c>
       <c r="G141">
@@ -8956,12 +8956,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>11.42469820</t>
+          <t>11.23074074</t>
         </is>
       </c>
       <c r="K141">
@@ -8971,12 +8971,12 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>11.43119669</t>
+          <t>11.29471320</t>
         </is>
       </c>
       <c r="O141">
@@ -9002,12 +9002,12 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0.05022361</t>
+          <t>0.05052490</t>
         </is>
       </c>
       <c r="G142">
@@ -9017,12 +9017,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>0.04983920</t>
+          <t>0.05045940</t>
         </is>
       </c>
       <c r="K142">
@@ -9032,12 +9032,12 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>0.05042157</t>
+          <t>0.05068617</t>
         </is>
       </c>
       <c r="O142">
@@ -9063,12 +9063,12 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0.27607514</t>
+          <t>0.27773130</t>
         </is>
       </c>
       <c r="G143">
@@ -9078,12 +9078,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>0.27498700</t>
+          <t>0.27641430</t>
         </is>
       </c>
       <c r="K143">
@@ -9093,12 +9093,12 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>0.27607514</t>
+          <t>0.27773130</t>
         </is>
       </c>
       <c r="O143">
@@ -9124,12 +9124,12 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0.12291600</t>
+          <t>0.12130000</t>
         </is>
       </c>
       <c r="G144">
@@ -9139,12 +9139,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>0.12284750</t>
+          <t>0.12130000</t>
         </is>
       </c>
       <c r="K144">
@@ -9154,12 +9154,12 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>0.12397750</t>
+          <t>0.12144980</t>
         </is>
       </c>
       <c r="O144">
@@ -9185,12 +9185,12 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1.70243767</t>
+          <t>1.62600536</t>
         </is>
       </c>
       <c r="G145">
@@ -9200,12 +9200,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>1.70185840</t>
+          <t>1.62589812</t>
         </is>
       </c>
       <c r="K145">
@@ -9215,12 +9215,12 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>1.71338145</t>
+          <t>1.62827630</t>
         </is>
       </c>
       <c r="O145">
